--- a/Apr 2019 to May 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Apr 2019 to May 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792BD766-4489-42B6-9AFE-A409DDB99BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B36787-E289-4ACB-994C-F41E0795BB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="compcsv" sheetId="1" r:id="rId1"/>
+    <sheet name="Apr 2019 to May 2019" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">compcsv!$A$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr 2019 to May 2019'!$A$1:$E$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -358,12 +358,6 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Apr 2019</t>
-  </si>
-  <si>
-    <t>May 2019</t>
-  </si>
-  <si>
     <t>Network added to Service in May</t>
   </si>
   <si>
@@ -374,12 +368,18 @@
   </si>
   <si>
     <t>New Network added to DB in May</t>
+  </si>
+  <si>
+    <t>Old Value</t>
+  </si>
+  <si>
+    <t>New Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,9 +857,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1214,52 +1215,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.53515625" customWidth="1"/>
+    <col min="3" max="3" width="35.3046875" customWidth="1"/>
+    <col min="4" max="4" width="35.61328125" customWidth="1"/>
+    <col min="5" max="5" width="64.23046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1267,13 +1268,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1287,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1295,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1309,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1329,32 +1330,35 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>113</v>
@@ -1362,7 +1366,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1371,18 +1375,21 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>113</v>
@@ -1390,21 +1397,21 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1413,40 +1420,40 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1455,32 +1462,35 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>113</v>
@@ -1488,7 +1498,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1497,12 +1507,12 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1511,18 +1521,21 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>113</v>
@@ -1530,49 +1543,49 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1581,12 +1594,12 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1595,18 +1608,21 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>113</v>
@@ -1614,13 +1630,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>113</v>
@@ -1628,13 +1647,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
         <v>113</v>
@@ -1642,13 +1664,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>113</v>
@@ -1656,13 +1681,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>113</v>
@@ -1670,7 +1698,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1679,32 +1707,35 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>113</v>
@@ -1712,13 +1743,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
         <v>113</v>
@@ -1726,21 +1760,21 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -1749,18 +1783,21 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
         <v>113</v>
@@ -1768,13 +1805,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
         <v>113</v>
@@ -1782,21 +1822,21 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -1805,559 +1845,562 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>102</v>
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
-      <c r="C72" t="s">
-        <v>37</v>
-      </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
-      <c r="C74" t="s">
-        <v>57</v>
-      </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
-      <c r="C76" t="s">
-        <v>37</v>
-      </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -2369,268 +2412,228 @@
         <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E89" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E91" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E92">
+  <autoFilter ref="A1:E92" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E92">
-      <sortCondition ref="E1"/>
+      <sortCondition ref="B2:B92"/>
+      <sortCondition ref="A2:A92"/>
+      <sortCondition ref="E2:E92"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Apr 2019 to May 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Apr 2019 to May 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B36787-E289-4ACB-994C-F41E0795BB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC478FFC-E7E2-4DF5-8025-152092B783D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="118">
   <si>
     <t>Comment</t>
   </si>
@@ -358,22 +358,25 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Network added to Service in May</t>
-  </si>
-  <si>
-    <t>Network removed from Service in May</t>
-  </si>
-  <si>
-    <t>Service Add-On Package Name Changed</t>
-  </si>
-  <si>
-    <t>New Network added to DB in May</t>
-  </si>
-  <si>
     <t>Old Value</t>
   </si>
   <si>
     <t>New Value</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1240,10 +1243,10 @@
         <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1260,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1274,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1288,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1302,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1316,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1330,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1344,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1361,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1375,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1392,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1406,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1420,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1434,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1448,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1462,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1476,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1493,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1507,7 +1510,7 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1521,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1538,7 +1541,7 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1552,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1566,7 +1569,7 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1580,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1594,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1608,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1625,7 +1628,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1642,7 +1645,7 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1659,7 +1662,7 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1676,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1693,7 +1696,7 @@
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1707,7 +1710,7 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1721,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1738,7 +1741,7 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1755,7 +1758,7 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1769,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1783,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1800,7 +1803,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1817,7 +1820,7 @@
         <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1831,7 +1834,7 @@
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1845,7 +1848,7 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1859,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1873,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1887,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1904,7 +1907,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1918,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1935,7 +1938,7 @@
         <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1949,7 +1952,7 @@
         <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1963,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1977,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1994,7 +1997,7 @@
         <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -2011,7 +2014,7 @@
         <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2028,7 +2031,7 @@
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2045,7 +2048,7 @@
         <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2062,7 +2065,7 @@
         <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2079,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2096,7 +2099,7 @@
         <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2113,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2130,7 +2133,7 @@
         <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2144,7 +2147,7 @@
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2158,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2172,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2189,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2203,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2220,7 +2223,7 @@
         <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2237,7 +2240,7 @@
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2254,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -2271,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -2288,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -2305,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -2319,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -2333,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -2350,7 +2353,7 @@
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2364,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -2381,7 +2384,7 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -2395,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -2412,7 +2415,7 @@
         <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -2429,7 +2432,7 @@
         <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -2443,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2457,7 +2460,7 @@
         <v>105</v>
       </c>
       <c r="E80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -2471,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2485,7 +2488,7 @@
         <v>106</v>
       </c>
       <c r="E82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2499,7 +2502,7 @@
         <v>107</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -2513,7 +2516,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -2527,7 +2530,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2541,7 +2544,7 @@
         <v>108</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -2555,7 +2558,7 @@
         <v>109</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2569,7 +2572,7 @@
         <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -2583,7 +2586,7 @@
         <v>102</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -2597,7 +2600,7 @@
         <v>103</v>
       </c>
       <c r="E90" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -2611,7 +2614,7 @@
         <v>104</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -2625,7 +2628,7 @@
         <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
